--- a/v3/python/test/v3_日文假名_Unicode编码.xlsx
+++ b/v3/python/test/v3_日文假名_Unicode编码.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00temp\日本語非辞書形辞典_v2\v3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\03Code\02Python\02Dic\v3\python\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A3C2E7-32DF-4714-B3AA-20BD4FA26FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB697F60-CF63-4FD9-AABC-2841474B912D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{73BA3A1E-55D6-47E7-9D87-5C11F0BC2344}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{73BA3A1E-55D6-47E7-9D87-5C11F0BC2344}"/>
   </bookViews>
   <sheets>
     <sheet name="平片假名" sheetId="1" r:id="rId1"/>
@@ -1423,34 +1423,26 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="18">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -1497,192 +1489,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -2844,370 +2650,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F8F110D-86F4-4278-B1EB-DAE993D427BA}" name="数据透视表5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="变换假名" colHeaderCaption="词性">
-  <location ref="M4:R58" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="ascending">
-      <items count="56">
-        <item m="1" x="54"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="26"/>
-        <item x="20"/>
-        <item x="28"/>
-        <item x="25"/>
-        <item x="18"/>
-        <item x="31"/>
-        <item x="30"/>
-        <item x="32"/>
-        <item x="19"/>
-        <item x="47"/>
-        <item x="17"/>
-        <item x="33"/>
-        <item x="29"/>
-        <item x="34"/>
-        <item x="8"/>
-        <item x="35"/>
-        <item x="23"/>
-        <item x="9"/>
-        <item x="36"/>
-        <item x="22"/>
-        <item x="4"/>
-        <item x="15"/>
-        <item x="14"/>
-        <item x="27"/>
-        <item x="48"/>
-        <item x="6"/>
-        <item x="13"/>
-        <item x="2"/>
-        <item x="37"/>
-        <item x="10"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="49"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="3"/>
-        <item x="21"/>
-        <item x="50"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item x="46"/>
-        <item x="51"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="24"/>
-        <item x="16"/>
-        <item m="1" x="53"/>
-        <item m="1" x="52"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="68">
-        <item m="1" x="34"/>
-        <item m="1" x="60"/>
-        <item m="1" x="44"/>
-        <item m="1" x="40"/>
-        <item m="1" x="32"/>
-        <item m="1" x="59"/>
-        <item m="1" x="20"/>
-        <item m="1" x="52"/>
-        <item m="1" x="50"/>
-        <item m="1" x="11"/>
-        <item m="1" x="33"/>
-        <item m="1" x="30"/>
-        <item m="1" x="56"/>
-        <item m="1" x="21"/>
-        <item m="1" x="18"/>
-        <item m="1" x="46"/>
-        <item m="1" x="8"/>
-        <item m="1" x="65"/>
-        <item m="1" x="63"/>
-        <item m="1" x="61"/>
-        <item m="1" x="47"/>
-        <item m="1" x="7"/>
-        <item m="1" x="42"/>
-        <item m="1" x="35"/>
-        <item m="1" x="27"/>
-        <item m="1" x="25"/>
-        <item m="1" x="15"/>
-        <item m="1" x="13"/>
-        <item m="1" x="66"/>
-        <item m="1" x="19"/>
-        <item m="1" x="12"/>
-        <item m="1" x="10"/>
-        <item m="1" x="64"/>
-        <item m="1" x="57"/>
-        <item m="1" x="28"/>
-        <item m="1" x="48"/>
-        <item m="1" x="17"/>
-        <item m="1" x="45"/>
-        <item m="1" x="37"/>
-        <item m="1" x="54"/>
-        <item m="1" x="24"/>
-        <item m="1" x="39"/>
-        <item m="1" x="31"/>
-        <item m="1" x="22"/>
-        <item m="1" x="58"/>
-        <item m="1" x="51"/>
-        <item m="1" x="49"/>
-        <item m="1" x="9"/>
-        <item m="1" x="38"/>
-        <item m="1" x="6"/>
-        <item m="1" x="62"/>
-        <item m="1" x="36"/>
-        <item m="1" x="55"/>
-        <item m="1" x="26"/>
-        <item m="1" x="16"/>
-        <item m="1" x="53"/>
-        <item m="1" x="43"/>
-        <item m="1" x="41"/>
-        <item m="1" x="23"/>
-        <item m="1" x="14"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item m="1" x="29"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="53">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="计数项:变换" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="32">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="1" selected="0">
-            <x v="62"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="31">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" offset="B1" fieldPosition="0"/>
-    </format>
-    <format dxfId="30">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="1">
-            <x v="62"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F3D8ADCA-0C3A-4D58-B5ED-ABD87629A2F1}" name="数据透视表3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="变换假名" colHeaderCaption="">
   <location ref="A4:F58" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
@@ -3546,7 +2988,7 @@
     <dataField name="计数项:变换" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="15">
-    <format dxfId="47">
+    <format dxfId="14">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -3555,7 +2997,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="13">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="2">
@@ -3565,7 +3007,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="12">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -3574,7 +3016,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="11">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -3583,7 +3025,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -3592,7 +3034,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="9">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
@@ -3604,7 +3046,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="8">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -3613,7 +3055,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="7">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -3622,7 +3064,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="39">
+    <format dxfId="6">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -3631,7 +3073,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="5">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -3640,7 +3082,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="4">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -3649,7 +3091,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
@@ -3661,7 +3103,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
@@ -3673,7 +3115,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
@@ -3685,7 +3127,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="0">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
@@ -3693,6 +3135,370 @@
           </reference>
           <reference field="2" count="1" selected="0">
             <x v="61"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F8F110D-86F4-4278-B1EB-DAE993D427BA}" name="数据透视表5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="变换假名" colHeaderCaption="词性">
+  <location ref="M4:R58" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="ascending">
+      <items count="56">
+        <item m="1" x="54"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="26"/>
+        <item x="20"/>
+        <item x="28"/>
+        <item x="25"/>
+        <item x="18"/>
+        <item x="31"/>
+        <item x="30"/>
+        <item x="32"/>
+        <item x="19"/>
+        <item x="47"/>
+        <item x="17"/>
+        <item x="33"/>
+        <item x="29"/>
+        <item x="34"/>
+        <item x="8"/>
+        <item x="35"/>
+        <item x="23"/>
+        <item x="9"/>
+        <item x="36"/>
+        <item x="22"/>
+        <item x="4"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="27"/>
+        <item x="48"/>
+        <item x="6"/>
+        <item x="13"/>
+        <item x="2"/>
+        <item x="37"/>
+        <item x="10"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="49"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="3"/>
+        <item x="21"/>
+        <item x="50"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="46"/>
+        <item x="51"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="24"/>
+        <item x="16"/>
+        <item m="1" x="53"/>
+        <item m="1" x="52"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="68">
+        <item m="1" x="34"/>
+        <item m="1" x="60"/>
+        <item m="1" x="44"/>
+        <item m="1" x="40"/>
+        <item m="1" x="32"/>
+        <item m="1" x="59"/>
+        <item m="1" x="20"/>
+        <item m="1" x="52"/>
+        <item m="1" x="50"/>
+        <item m="1" x="11"/>
+        <item m="1" x="33"/>
+        <item m="1" x="30"/>
+        <item m="1" x="56"/>
+        <item m="1" x="21"/>
+        <item m="1" x="18"/>
+        <item m="1" x="46"/>
+        <item m="1" x="8"/>
+        <item m="1" x="65"/>
+        <item m="1" x="63"/>
+        <item m="1" x="61"/>
+        <item m="1" x="47"/>
+        <item m="1" x="7"/>
+        <item m="1" x="42"/>
+        <item m="1" x="35"/>
+        <item m="1" x="27"/>
+        <item m="1" x="25"/>
+        <item m="1" x="15"/>
+        <item m="1" x="13"/>
+        <item m="1" x="66"/>
+        <item m="1" x="19"/>
+        <item m="1" x="12"/>
+        <item m="1" x="10"/>
+        <item m="1" x="64"/>
+        <item m="1" x="57"/>
+        <item m="1" x="28"/>
+        <item m="1" x="48"/>
+        <item m="1" x="17"/>
+        <item m="1" x="45"/>
+        <item m="1" x="37"/>
+        <item m="1" x="54"/>
+        <item m="1" x="24"/>
+        <item m="1" x="39"/>
+        <item m="1" x="31"/>
+        <item m="1" x="22"/>
+        <item m="1" x="58"/>
+        <item m="1" x="51"/>
+        <item m="1" x="49"/>
+        <item m="1" x="9"/>
+        <item m="1" x="38"/>
+        <item m="1" x="6"/>
+        <item m="1" x="62"/>
+        <item m="1" x="36"/>
+        <item m="1" x="55"/>
+        <item m="1" x="26"/>
+        <item m="1" x="16"/>
+        <item m="1" x="53"/>
+        <item m="1" x="43"/>
+        <item m="1" x="41"/>
+        <item m="1" x="23"/>
+        <item m="1" x="14"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item m="1" x="29"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="53">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="计数项:变换" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="17">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="62"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="16">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" offset="B1" fieldPosition="0"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="62"/>
           </reference>
         </references>
       </pivotArea>
@@ -6393,9 +6199,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4188F4EC-6A9D-46E4-8AEC-0A823122AEA1}">
   <dimension ref="A3:R59"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -8351,7 +8157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EF6075-5B5B-45A4-A45C-C6AFFDC473D5}">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>

--- a/v3/python/test/v3_日文假名_Unicode编码.xlsx
+++ b/v3/python/test/v3_日文假名_Unicode编码.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\03Code\02Python\02Dic\v3\python\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB697F60-CF63-4FD9-AABC-2841474B912D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEB7CC6-837C-4D62-92E7-5013DB08ABDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{73BA3A1E-55D6-47E7-9D87-5C11F0BC2344}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="5" xr2:uid="{73BA3A1E-55D6-47E7-9D87-5C11F0BC2344}"/>
   </bookViews>
   <sheets>
     <sheet name="平片假名" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="399">
   <si>
     <t>ぁ</t>
   </si>
@@ -1138,9 +1138,6 @@
   <si>
     <t>元词尾</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原词尾词性</t>
   </si>
   <si>
     <t>原词尾词性</t>
@@ -1287,6 +1284,41 @@
   </si>
   <si>
     <t>变换假名来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原词尾词性（只含动词）</t>
+  </si>
+  <si>
+    <t>ゆ</t>
+  </si>
+  <si>
+    <t>ふ</t>
+  </si>
+  <si>
+    <t>ぷ</t>
+  </si>
+  <si>
+    <t>づ</t>
+  </si>
+  <si>
+    <t>ぃ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型词尾假名分析（全词性）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假名排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>频率排序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1425,6 +1457,27 @@
   </cellStyles>
   <dxfs count="18">
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
@@ -1468,27 +1521,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -2650,6 +2682,370 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F8F110D-86F4-4278-B1EB-DAE993D427BA}" name="数据透视表5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="变换假名" colHeaderCaption="词性">
+  <location ref="M4:R58" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="ascending">
+      <items count="56">
+        <item m="1" x="54"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="26"/>
+        <item x="20"/>
+        <item x="28"/>
+        <item x="25"/>
+        <item x="18"/>
+        <item x="31"/>
+        <item x="30"/>
+        <item x="32"/>
+        <item x="19"/>
+        <item x="47"/>
+        <item x="17"/>
+        <item x="33"/>
+        <item x="29"/>
+        <item x="34"/>
+        <item x="8"/>
+        <item x="35"/>
+        <item x="23"/>
+        <item x="9"/>
+        <item x="36"/>
+        <item x="22"/>
+        <item x="4"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="27"/>
+        <item x="48"/>
+        <item x="6"/>
+        <item x="13"/>
+        <item x="2"/>
+        <item x="37"/>
+        <item x="10"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="49"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="3"/>
+        <item x="21"/>
+        <item x="50"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="46"/>
+        <item x="51"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="24"/>
+        <item x="16"/>
+        <item m="1" x="53"/>
+        <item m="1" x="52"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="68">
+        <item m="1" x="34"/>
+        <item m="1" x="60"/>
+        <item m="1" x="44"/>
+        <item m="1" x="40"/>
+        <item m="1" x="32"/>
+        <item m="1" x="59"/>
+        <item m="1" x="20"/>
+        <item m="1" x="52"/>
+        <item m="1" x="50"/>
+        <item m="1" x="11"/>
+        <item m="1" x="33"/>
+        <item m="1" x="30"/>
+        <item m="1" x="56"/>
+        <item m="1" x="21"/>
+        <item m="1" x="18"/>
+        <item m="1" x="46"/>
+        <item m="1" x="8"/>
+        <item m="1" x="65"/>
+        <item m="1" x="63"/>
+        <item m="1" x="61"/>
+        <item m="1" x="47"/>
+        <item m="1" x="7"/>
+        <item m="1" x="42"/>
+        <item m="1" x="35"/>
+        <item m="1" x="27"/>
+        <item m="1" x="25"/>
+        <item m="1" x="15"/>
+        <item m="1" x="13"/>
+        <item m="1" x="66"/>
+        <item m="1" x="19"/>
+        <item m="1" x="12"/>
+        <item m="1" x="10"/>
+        <item m="1" x="64"/>
+        <item m="1" x="57"/>
+        <item m="1" x="28"/>
+        <item m="1" x="48"/>
+        <item m="1" x="17"/>
+        <item m="1" x="45"/>
+        <item m="1" x="37"/>
+        <item m="1" x="54"/>
+        <item m="1" x="24"/>
+        <item m="1" x="39"/>
+        <item m="1" x="31"/>
+        <item m="1" x="22"/>
+        <item m="1" x="58"/>
+        <item m="1" x="51"/>
+        <item m="1" x="49"/>
+        <item m="1" x="9"/>
+        <item m="1" x="38"/>
+        <item m="1" x="6"/>
+        <item m="1" x="62"/>
+        <item m="1" x="36"/>
+        <item m="1" x="55"/>
+        <item m="1" x="26"/>
+        <item m="1" x="16"/>
+        <item m="1" x="53"/>
+        <item m="1" x="43"/>
+        <item m="1" x="41"/>
+        <item m="1" x="23"/>
+        <item m="1" x="14"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item m="1" x="29"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="53">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="计数项:变换" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="2">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="62"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" offset="B1" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="62"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F3D8ADCA-0C3A-4D58-B5ED-ABD87629A2F1}" name="数据透视表3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="变换假名" colHeaderCaption="">
   <location ref="A4:F58" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
@@ -2988,7 +3384,7 @@
     <dataField name="计数项:变换" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="15">
-    <format dxfId="14">
+    <format dxfId="17">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -2997,7 +3393,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="16">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="2">
@@ -3007,7 +3403,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="15">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -3016,7 +3412,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="14">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -3025,7 +3421,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -3034,7 +3430,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="12">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
@@ -3046,7 +3442,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="11">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -3055,7 +3451,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="10">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -3064,7 +3460,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="9">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -3073,7 +3469,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="8">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -3082,7 +3478,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="7">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -3091,7 +3487,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="6">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
@@ -3103,7 +3499,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
@@ -3115,7 +3511,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
@@ -3127,7 +3523,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
@@ -3135,370 +3531,6 @@
           </reference>
           <reference field="2" count="1" selected="0">
             <x v="61"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F8F110D-86F4-4278-B1EB-DAE993D427BA}" name="数据透视表5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="变换假名" colHeaderCaption="词性">
-  <location ref="M4:R58" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="ascending">
-      <items count="56">
-        <item m="1" x="54"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="26"/>
-        <item x="20"/>
-        <item x="28"/>
-        <item x="25"/>
-        <item x="18"/>
-        <item x="31"/>
-        <item x="30"/>
-        <item x="32"/>
-        <item x="19"/>
-        <item x="47"/>
-        <item x="17"/>
-        <item x="33"/>
-        <item x="29"/>
-        <item x="34"/>
-        <item x="8"/>
-        <item x="35"/>
-        <item x="23"/>
-        <item x="9"/>
-        <item x="36"/>
-        <item x="22"/>
-        <item x="4"/>
-        <item x="15"/>
-        <item x="14"/>
-        <item x="27"/>
-        <item x="48"/>
-        <item x="6"/>
-        <item x="13"/>
-        <item x="2"/>
-        <item x="37"/>
-        <item x="10"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="49"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="3"/>
-        <item x="21"/>
-        <item x="50"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item x="46"/>
-        <item x="51"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="24"/>
-        <item x="16"/>
-        <item m="1" x="53"/>
-        <item m="1" x="52"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="68">
-        <item m="1" x="34"/>
-        <item m="1" x="60"/>
-        <item m="1" x="44"/>
-        <item m="1" x="40"/>
-        <item m="1" x="32"/>
-        <item m="1" x="59"/>
-        <item m="1" x="20"/>
-        <item m="1" x="52"/>
-        <item m="1" x="50"/>
-        <item m="1" x="11"/>
-        <item m="1" x="33"/>
-        <item m="1" x="30"/>
-        <item m="1" x="56"/>
-        <item m="1" x="21"/>
-        <item m="1" x="18"/>
-        <item m="1" x="46"/>
-        <item m="1" x="8"/>
-        <item m="1" x="65"/>
-        <item m="1" x="63"/>
-        <item m="1" x="61"/>
-        <item m="1" x="47"/>
-        <item m="1" x="7"/>
-        <item m="1" x="42"/>
-        <item m="1" x="35"/>
-        <item m="1" x="27"/>
-        <item m="1" x="25"/>
-        <item m="1" x="15"/>
-        <item m="1" x="13"/>
-        <item m="1" x="66"/>
-        <item m="1" x="19"/>
-        <item m="1" x="12"/>
-        <item m="1" x="10"/>
-        <item m="1" x="64"/>
-        <item m="1" x="57"/>
-        <item m="1" x="28"/>
-        <item m="1" x="48"/>
-        <item m="1" x="17"/>
-        <item m="1" x="45"/>
-        <item m="1" x="37"/>
-        <item m="1" x="54"/>
-        <item m="1" x="24"/>
-        <item m="1" x="39"/>
-        <item m="1" x="31"/>
-        <item m="1" x="22"/>
-        <item m="1" x="58"/>
-        <item m="1" x="51"/>
-        <item m="1" x="49"/>
-        <item m="1" x="9"/>
-        <item m="1" x="38"/>
-        <item m="1" x="6"/>
-        <item m="1" x="62"/>
-        <item m="1" x="36"/>
-        <item m="1" x="55"/>
-        <item m="1" x="26"/>
-        <item m="1" x="16"/>
-        <item m="1" x="53"/>
-        <item m="1" x="43"/>
-        <item m="1" x="41"/>
-        <item m="1" x="23"/>
-        <item m="1" x="14"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item m="1" x="29"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="53">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="计数项:变换" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="17">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="1" selected="0">
-            <x v="62"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="16">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" offset="B1" fieldPosition="0"/>
-    </format>
-    <format dxfId="15">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="1">
-            <x v="62"/>
           </reference>
         </references>
       </pivotArea>
@@ -3720,7 +3752,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisPage" dataField="1" showAll="0">
+    <pivotField name="原词尾词性（只含动词）" axis="axisPage" dataField="1" showAll="0">
       <items count="16">
         <item m="1" x="10"/>
         <item m="1" x="7"/>
@@ -6199,7 +6231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4188F4EC-6A9D-46E4-8AEC-0A823122AEA1}">
   <dimension ref="A3:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
@@ -6235,7 +6267,7 @@
   <sheetData>
     <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B3" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -6244,24 +6276,24 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B5" t="s">
         <v>363</v>
-      </c>
-      <c r="B5" t="s">
-        <v>364</v>
       </c>
       <c r="C5" t="s">
         <v>230</v>
@@ -6270,16 +6302,16 @@
         <v>240</v>
       </c>
       <c r="E5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F5" t="s">
         <v>215</v>
       </c>
       <c r="M5" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="N5" t="s">
         <v>363</v>
-      </c>
-      <c r="N5" t="s">
-        <v>364</v>
       </c>
       <c r="O5" t="s">
         <v>230</v>
@@ -6288,7 +6320,7 @@
         <v>240</v>
       </c>
       <c r="Q5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="R5" t="s">
         <v>215</v>
@@ -6310,7 +6342,7 @@
         <v>4</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N6" s="9">
         <v>1</v>
@@ -7010,7 +7042,7 @@
         <v>1</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N30" s="9">
         <v>1</v>
@@ -7160,7 +7192,7 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A36" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B36" s="9">
         <v>1</v>
@@ -7240,7 +7272,7 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A39" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B39" s="9">
         <v>1</v>
@@ -7812,7 +7844,7 @@
         <v>64</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -8182,7 +8214,7 @@
         <v>213</v>
       </c>
       <c r="B1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C1" t="s">
         <v>351</v>
@@ -8191,13 +8223,13 @@
         <v>353</v>
       </c>
       <c r="E1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G1" t="s">
         <v>355</v>
-      </c>
-      <c r="F1" t="s">
-        <v>369</v>
-      </c>
-      <c r="G1" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -8208,13 +8240,13 @@
         <v>216</v>
       </c>
       <c r="C2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D2" t="s">
         <v>184</v>
       </c>
       <c r="E2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F2" t="s">
         <v>217</v>
@@ -8231,16 +8263,16 @@
         <v>218</v>
       </c>
       <c r="C3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D3" t="s">
         <v>202</v>
       </c>
       <c r="E3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G3" t="s">
         <v>289</v>
@@ -8254,13 +8286,13 @@
         <v>219</v>
       </c>
       <c r="C4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D4" t="s">
         <v>202</v>
       </c>
       <c r="E4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F4" t="s">
         <v>217</v>
@@ -8277,13 +8309,13 @@
         <v>220</v>
       </c>
       <c r="C5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D5" t="s">
         <v>202</v>
       </c>
       <c r="E5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F5" t="s">
         <v>217</v>
@@ -8300,13 +8332,13 @@
         <v>221</v>
       </c>
       <c r="C6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D6" t="s">
         <v>202</v>
       </c>
       <c r="E6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F6" t="s">
         <v>217</v>
@@ -8323,13 +8355,13 @@
         <v>222</v>
       </c>
       <c r="C7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D7" t="s">
         <v>202</v>
       </c>
       <c r="E7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F7" t="s">
         <v>217</v>
@@ -8346,13 +8378,13 @@
         <v>223</v>
       </c>
       <c r="C8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D8" t="s">
         <v>202</v>
       </c>
       <c r="E8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F8" t="s">
         <v>217</v>
@@ -8369,13 +8401,13 @@
         <v>224</v>
       </c>
       <c r="C9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D9" t="s">
         <v>202</v>
       </c>
       <c r="E9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F9" t="s">
         <v>217</v>
@@ -8392,13 +8424,13 @@
         <v>225</v>
       </c>
       <c r="C10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D10" t="s">
         <v>202</v>
       </c>
       <c r="E10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F10" t="s">
         <v>217</v>
@@ -8415,13 +8447,13 @@
         <v>226</v>
       </c>
       <c r="C11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D11" t="s">
         <v>202</v>
       </c>
       <c r="E11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F11" t="s">
         <v>217</v>
@@ -8438,13 +8470,13 @@
         <v>227</v>
       </c>
       <c r="C12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D12" t="s">
         <v>202</v>
       </c>
       <c r="E12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F12" t="s">
         <v>217</v>
@@ -8461,36 +8493,36 @@
         <v>228</v>
       </c>
       <c r="C13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D13" t="s">
         <v>202</v>
       </c>
       <c r="E13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F13" t="s">
         <v>217</v>
       </c>
       <c r="G13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="26.5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>202</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>217</v>
@@ -8501,48 +8533,48 @@
     </row>
     <row r="15" spans="1:7" ht="26.5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
+        <v>374</v>
+      </c>
+      <c r="B15" t="s">
         <v>375</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>376</v>
-      </c>
-      <c r="C15" t="s">
-        <v>377</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>202</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>217</v>
       </c>
       <c r="G15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="26.5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
+        <v>380</v>
+      </c>
+      <c r="B16" t="s">
         <v>381</v>
       </c>
-      <c r="B16" t="s">
-        <v>382</v>
-      </c>
       <c r="C16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>184</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>217</v>
       </c>
       <c r="G16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="26.5" x14ac:dyDescent="0.4">
@@ -8550,22 +8582,22 @@
         <v>190</v>
       </c>
       <c r="B17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>202</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>217</v>
       </c>
       <c r="G17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
@@ -8576,19 +8608,19 @@
         <v>229</v>
       </c>
       <c r="C18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D18" t="s">
         <v>202</v>
       </c>
       <c r="E18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F18" t="s">
         <v>217</v>
       </c>
       <c r="G18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
@@ -9792,7 +9824,7 @@
         <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.4">
@@ -9800,7 +9832,7 @@
         <v>206</v>
       </c>
       <c r="C72" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.4">
@@ -9808,7 +9840,7 @@
         <v>207</v>
       </c>
       <c r="C73" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.4">
@@ -9816,7 +9848,7 @@
         <v>208</v>
       </c>
       <c r="C74" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.4">
@@ -9824,7 +9856,7 @@
         <v>209</v>
       </c>
       <c r="C75" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.4">
@@ -9832,7 +9864,7 @@
         <v>210</v>
       </c>
       <c r="C76" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.4">
@@ -9840,7 +9872,7 @@
         <v>204</v>
       </c>
       <c r="C77" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.4">
@@ -9848,7 +9880,7 @@
         <v>211</v>
       </c>
       <c r="C78" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.4">
@@ -9856,7 +9888,7 @@
         <v>212</v>
       </c>
       <c r="C79" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.4">
@@ -9864,24 +9896,24 @@
         <v>202</v>
       </c>
       <c r="C80" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="81" spans="10:15" ht="63" x14ac:dyDescent="0.4">
       <c r="J81" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K81" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="L81" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="L81" s="10" t="s">
+      <c r="M81" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="M81" s="10" t="s">
+      <c r="N81" s="10" t="s">
         <v>372</v>
-      </c>
-      <c r="N81" s="10" t="s">
-        <v>373</v>
       </c>
       <c r="O81" s="6" t="s">
         <v>184</v>
@@ -9899,129 +9931,1254 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43488E6-E580-4A7F-B87D-92FB3CE2996C}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="17.4375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.1875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.875" customWidth="1"/>
+    <col min="7" max="7" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="B1" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1" t="s">
+        <v>397</v>
+      </c>
+      <c r="G1" t="s">
+        <v>396</v>
+      </c>
+      <c r="H1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>703</v>
+      </c>
+      <c r="G2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H2">
+        <v>37041</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+        <v>358</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3" s="1">
+        <v>114</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>34457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>34457</v>
+      </c>
+      <c r="G4" t="s">
+        <v>202</v>
+      </c>
+      <c r="H4">
+        <v>34325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
         <v>206</v>
       </c>
       <c r="B5" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D5" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H5">
+        <v>22571</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B6" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6">
+        <v>37041</v>
+      </c>
+      <c r="G6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6">
+        <v>20445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
         <v>208</v>
       </c>
       <c r="B7" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7">
+        <v>18091</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
         <v>209</v>
       </c>
       <c r="B8" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>4269</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>16940</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
         <v>210</v>
       </c>
       <c r="B9" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H9">
+        <v>14672</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
         <v>204</v>
       </c>
       <c r="B10" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>1962</v>
+      </c>
+      <c r="G10" t="s">
+        <v>210</v>
+      </c>
+      <c r="H10">
+        <v>11645</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="8" t="s">
         <v>211</v>
       </c>
       <c r="B11" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>5286</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11">
+        <v>7481</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="8" t="s">
         <v>212</v>
       </c>
       <c r="B12" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>990</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12">
+        <v>6905</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
         <v>202</v>
       </c>
       <c r="B13" s="9">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>16940</v>
+      </c>
+      <c r="G13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13">
+        <v>6257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="8" t="s">
         <v>214</v>
       </c>
       <c r="B14" s="9"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>4219</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14">
+        <v>5747</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B15" s="9">
         <v>69</v>
       </c>
+      <c r="D15" t="s">
+        <v>207</v>
+      </c>
+      <c r="E15">
+        <v>22571</v>
+      </c>
+      <c r="G15" t="s">
+        <v>212</v>
+      </c>
+      <c r="H15">
+        <v>5541</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E16">
+        <v>2429</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17">
+        <v>5411</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17">
+        <v>5286</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>3074</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18">
+        <v>5141</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>4196</v>
+      </c>
+      <c r="G19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20">
+        <v>2426</v>
+      </c>
+      <c r="G20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20">
+        <v>4568</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21">
+        <v>4336</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22">
+        <v>728</v>
+      </c>
+      <c r="G22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22">
+        <v>4269</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23">
+        <v>18091</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23">
+        <v>4219</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <v>3936</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24">
+        <v>4196</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D25" t="s">
+        <v>209</v>
+      </c>
+      <c r="E25">
+        <v>14672</v>
+      </c>
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D26" t="s">
+        <v>203</v>
+      </c>
+      <c r="E26">
+        <v>3339</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26">
+        <v>3936</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1588</v>
+      </c>
+      <c r="G27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27">
+        <v>3903</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>553</v>
+      </c>
+      <c r="G28" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28">
+        <v>3860</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1071</v>
+      </c>
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>194</v>
+      </c>
+      <c r="G30" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30">
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>5141</v>
+      </c>
+      <c r="G31" t="s">
+        <v>203</v>
+      </c>
+      <c r="H31">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32">
+        <v>1348</v>
+      </c>
+      <c r="G32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32">
+        <v>3321</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33">
+        <v>7481</v>
+      </c>
+      <c r="G33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34">
+        <v>19</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35">
+        <v>108</v>
+      </c>
+      <c r="G35" t="s">
+        <v>57</v>
+      </c>
+      <c r="H35">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D36" t="s">
+        <v>210</v>
+      </c>
+      <c r="E36">
+        <v>11645</v>
+      </c>
+      <c r="G36" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D37" t="s">
+        <v>393</v>
+      </c>
+      <c r="E37">
+        <v>112</v>
+      </c>
+      <c r="G37" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38">
+        <v>3152</v>
+      </c>
+      <c r="G38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39">
+        <v>1303</v>
+      </c>
+      <c r="G39" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40">
+        <v>5747</v>
+      </c>
+      <c r="G40" t="s">
+        <v>211</v>
+      </c>
+      <c r="H40">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41">
+        <v>2607</v>
+      </c>
+      <c r="G41" t="s">
+        <v>208</v>
+      </c>
+      <c r="H41">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D42" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42">
+        <v>3625</v>
+      </c>
+      <c r="G42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43">
+        <v>2288</v>
+      </c>
+      <c r="G43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H43">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="44" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D44" t="s">
+        <v>204</v>
+      </c>
+      <c r="E44">
+        <v>852</v>
+      </c>
+      <c r="G44" t="s">
+        <v>53</v>
+      </c>
+      <c r="H44">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="45" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D45" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45">
+        <v>2908</v>
+      </c>
+      <c r="G45" t="s">
+        <v>64</v>
+      </c>
+      <c r="H45">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="46" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D46" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46">
+        <v>4158</v>
+      </c>
+      <c r="G46" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="47" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47">
+        <v>1311</v>
+      </c>
+      <c r="G47" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="48" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48">
+        <v>2525</v>
+      </c>
+      <c r="G48" t="s">
+        <v>391</v>
+      </c>
+      <c r="H48">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D49" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49">
+        <v>243</v>
+      </c>
+      <c r="G49" t="s">
+        <v>56</v>
+      </c>
+      <c r="H49">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D50" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50">
+        <v>654</v>
+      </c>
+      <c r="G50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="51" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D51" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51">
+        <v>2681</v>
+      </c>
+      <c r="G51" t="s">
+        <v>38</v>
+      </c>
+      <c r="H51">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="52" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D52" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52">
+        <v>140</v>
+      </c>
+      <c r="G52" t="s">
+        <v>31</v>
+      </c>
+      <c r="H52">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D53" t="s">
+        <v>391</v>
+      </c>
+      <c r="E53">
+        <v>1571</v>
+      </c>
+      <c r="G53" t="s">
+        <v>390</v>
+      </c>
+      <c r="H53">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="54" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D54" t="s">
+        <v>211</v>
+      </c>
+      <c r="E54">
+        <v>2439</v>
+      </c>
+      <c r="G54" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="55" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D55" t="s">
+        <v>392</v>
+      </c>
+      <c r="E55">
+        <v>651</v>
+      </c>
+      <c r="G55" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="56" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D56" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56">
+        <v>74</v>
+      </c>
+      <c r="G56" t="s">
+        <v>48</v>
+      </c>
+      <c r="H56">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="57" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D57" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57">
+        <v>906</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="58" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D58" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58">
+        <v>68</v>
+      </c>
+      <c r="G58" t="s">
+        <v>204</v>
+      </c>
+      <c r="H58">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="59" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D59" t="s">
+        <v>47</v>
+      </c>
+      <c r="E59">
+        <v>268</v>
+      </c>
+      <c r="G59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="60" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D60" t="s">
+        <v>48</v>
+      </c>
+      <c r="E60">
+        <v>945</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" s="1">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="61" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D61" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61">
+        <v>282</v>
+      </c>
+      <c r="G61" t="s">
+        <v>41</v>
+      </c>
+      <c r="H61">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="62" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D62" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62">
+        <v>4568</v>
+      </c>
+      <c r="G62" t="s">
+        <v>392</v>
+      </c>
+      <c r="H62">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="63" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D63" t="s">
+        <v>51</v>
+      </c>
+      <c r="E63">
+        <v>6905</v>
+      </c>
+      <c r="G63" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="64" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D64" t="s">
+        <v>212</v>
+      </c>
+      <c r="E64">
+        <v>5541</v>
+      </c>
+      <c r="G64" t="s">
+        <v>58</v>
+      </c>
+      <c r="H64">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="65" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D65" t="s">
+        <v>52</v>
+      </c>
+      <c r="E65">
+        <v>5000</v>
+      </c>
+      <c r="G65" t="s">
+        <v>49</v>
+      </c>
+      <c r="H65">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="66" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D66" t="s">
+        <v>53</v>
+      </c>
+      <c r="E66">
+        <v>2039</v>
+      </c>
+      <c r="G66" t="s">
+        <v>47</v>
+      </c>
+      <c r="H66">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="67" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D67" t="s">
+        <v>54</v>
+      </c>
+      <c r="E67">
+        <v>3860</v>
+      </c>
+      <c r="G67" t="s">
+        <v>40</v>
+      </c>
+      <c r="H67">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="68" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D68" t="s">
+        <v>55</v>
+      </c>
+      <c r="E68">
+        <v>3321</v>
+      </c>
+      <c r="G68" t="s">
+        <v>24</v>
+      </c>
+      <c r="H68">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="69" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D69" t="s">
+        <v>56</v>
+      </c>
+      <c r="E69">
+        <v>1396</v>
+      </c>
+      <c r="G69" t="s">
+        <v>43</v>
+      </c>
+      <c r="H69">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D70" t="s">
+        <v>390</v>
+      </c>
+      <c r="E70">
+        <v>1216</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="H70" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D71" t="s">
+        <v>57</v>
+      </c>
+      <c r="E71">
+        <v>2953</v>
+      </c>
+      <c r="G71" t="s">
+        <v>393</v>
+      </c>
+      <c r="H71">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D72" t="s">
+        <v>58</v>
+      </c>
+      <c r="E72">
+        <v>439</v>
+      </c>
+      <c r="G72" t="s">
+        <v>29</v>
+      </c>
+      <c r="H72">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D73" t="s">
+        <v>59</v>
+      </c>
+      <c r="E73">
+        <v>6257</v>
+      </c>
+      <c r="G73" t="s">
+        <v>67</v>
+      </c>
+      <c r="H73">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D74" t="s">
+        <v>60</v>
+      </c>
+      <c r="E74">
+        <v>20445</v>
+      </c>
+      <c r="G74" t="s">
+        <v>44</v>
+      </c>
+      <c r="H74">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D75" t="s">
+        <v>202</v>
+      </c>
+      <c r="E75">
+        <v>34325</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D76" t="s">
+        <v>61</v>
+      </c>
+      <c r="E76">
+        <v>3622</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D77" t="s">
+        <v>62</v>
+      </c>
+      <c r="E77">
+        <v>3903</v>
+      </c>
+      <c r="G77" t="s">
+        <v>28</v>
+      </c>
+      <c r="H77">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D78" t="s">
+        <v>63</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H78" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D79" t="s">
+        <v>64</v>
+      </c>
+      <c r="E79">
+        <v>1966</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="H79" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D80" t="s">
+        <v>65</v>
+      </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
+      <c r="G80" t="s">
+        <v>65</v>
+      </c>
+      <c r="H80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D81" t="s">
+        <v>66</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+      <c r="G81" t="s">
+        <v>66</v>
+      </c>
+      <c r="H81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D82" t="s">
+        <v>67</v>
+      </c>
+      <c r="E82">
+        <v>87</v>
+      </c>
+      <c r="G82" t="s">
+        <v>63</v>
+      </c>
+      <c r="H82">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G1:H82">
+    <sortCondition descending="1" ref="H1:H82"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/v3/python/test/v3_日文假名_Unicode编码.xlsx
+++ b/v3/python/test/v3_日文假名_Unicode编码.xlsx
@@ -8,22 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\03Code\02Python\02Dic\v3\python\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEB7CC6-837C-4D62-92E7-5013DB08ABDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB94CBC-63D2-42AD-830C-4C28F4896DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="5" xr2:uid="{73BA3A1E-55D6-47E7-9D87-5C11F0BC2344}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{73BA3A1E-55D6-47E7-9D87-5C11F0BC2344}"/>
   </bookViews>
   <sheets>
     <sheet name="平片假名" sheetId="1" r:id="rId1"/>
     <sheet name="动词假名仿五十音图" sheetId="2" r:id="rId2"/>
     <sheet name="变换词尾分析" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
-    <sheet name="词尾假名回推" sheetId="3" r:id="rId5"/>
-    <sheet name="原词尾假名分析" sheetId="6" r:id="rId6"/>
+    <sheet name="词尾假名回推" sheetId="3" r:id="rId4"/>
+    <sheet name="原词尾假名分析" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
-    <pivotCache cacheId="1" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="398">
   <si>
     <t>ぁ</t>
   </si>
@@ -1278,9 +1276,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>行标签</t>
   </si>
   <si>
     <t>变换假名来源</t>
@@ -1402,7 +1397,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1442,9 +1437,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1456,27 +1448,6 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1574,6 +1545,27 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1588,62 +1580,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Xuetong Qing" refreshedDate="44764.681211342591" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="43" xr:uid="{2DDE5055-BB31-47DB-9B2B-E94F6776B3F0}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:A44" sheet="Sheet1"/>
-  </cacheSource>
-  <cacheFields count="1">
-    <cacheField name="わ" numFmtId="0">
-      <sharedItems count="37">
-        <s v="い"/>
-        <s v="え"/>
-        <s v="お"/>
-        <s v="か"/>
-        <s v="が"/>
-        <s v="き"/>
-        <s v="ぎ"/>
-        <s v="け"/>
-        <s v="げ"/>
-        <s v="こ"/>
-        <s v="ご"/>
-        <s v="さ"/>
-        <s v="し"/>
-        <s v="せ"/>
-        <s v="そ"/>
-        <s v="た"/>
-        <s v="ち"/>
-        <s v="っ"/>
-        <s v="て"/>
-        <s v="と"/>
-        <s v="な"/>
-        <s v="に"/>
-        <s v="ね"/>
-        <s v="の"/>
-        <s v="ば"/>
-        <s v="び"/>
-        <s v="べ"/>
-        <s v="ぼ"/>
-        <s v="ま"/>
-        <s v="み"/>
-        <s v="め"/>
-        <s v="も"/>
-        <s v="ら"/>
-        <s v="り"/>
-        <s v="れ"/>
-        <s v="ろ"/>
-        <s v="ん"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Xuetong Qing" refreshedDate="44765.372568287035" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="79" xr:uid="{8B3726F6-8420-4A96-BDB9-714480B68D11}">
   <cacheSource type="worksheet">
     <worksheetSource name="表1"/>
@@ -1832,140 +1768,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="43">
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="15"/>
-  </r>
-  <r>
-    <x v="16"/>
-  </r>
-  <r>
-    <x v="17"/>
-  </r>
-  <r>
-    <x v="17"/>
-  </r>
-  <r>
-    <x v="17"/>
-  </r>
-  <r>
-    <x v="18"/>
-  </r>
-  <r>
-    <x v="19"/>
-  </r>
-  <r>
-    <x v="20"/>
-  </r>
-  <r>
-    <x v="21"/>
-  </r>
-  <r>
-    <x v="22"/>
-  </r>
-  <r>
-    <x v="23"/>
-  </r>
-  <r>
-    <x v="24"/>
-  </r>
-  <r>
-    <x v="25"/>
-  </r>
-  <r>
-    <x v="26"/>
-  </r>
-  <r>
-    <x v="27"/>
-  </r>
-  <r>
-    <x v="28"/>
-  </r>
-  <r>
-    <x v="29"/>
-  </r>
-  <r>
-    <x v="30"/>
-  </r>
-  <r>
-    <x v="31"/>
-  </r>
-  <r>
-    <x v="32"/>
-  </r>
-  <r>
-    <x v="33"/>
-  </r>
-  <r>
-    <x v="34"/>
-  </r>
-  <r>
-    <x v="35"/>
-  </r>
-  <r>
-    <x v="36"/>
-  </r>
-  <r>
-    <x v="36"/>
-  </r>
-  <r>
-    <x v="36"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="79">
   <r>
     <x v="0"/>
@@ -2682,370 +2484,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F8F110D-86F4-4278-B1EB-DAE993D427BA}" name="数据透视表5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="变换假名" colHeaderCaption="词性">
-  <location ref="M4:R58" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="ascending">
-      <items count="56">
-        <item m="1" x="54"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="26"/>
-        <item x="20"/>
-        <item x="28"/>
-        <item x="25"/>
-        <item x="18"/>
-        <item x="31"/>
-        <item x="30"/>
-        <item x="32"/>
-        <item x="19"/>
-        <item x="47"/>
-        <item x="17"/>
-        <item x="33"/>
-        <item x="29"/>
-        <item x="34"/>
-        <item x="8"/>
-        <item x="35"/>
-        <item x="23"/>
-        <item x="9"/>
-        <item x="36"/>
-        <item x="22"/>
-        <item x="4"/>
-        <item x="15"/>
-        <item x="14"/>
-        <item x="27"/>
-        <item x="48"/>
-        <item x="6"/>
-        <item x="13"/>
-        <item x="2"/>
-        <item x="37"/>
-        <item x="10"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="49"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="3"/>
-        <item x="21"/>
-        <item x="50"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item x="46"/>
-        <item x="51"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="24"/>
-        <item x="16"/>
-        <item m="1" x="53"/>
-        <item m="1" x="52"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="68">
-        <item m="1" x="34"/>
-        <item m="1" x="60"/>
-        <item m="1" x="44"/>
-        <item m="1" x="40"/>
-        <item m="1" x="32"/>
-        <item m="1" x="59"/>
-        <item m="1" x="20"/>
-        <item m="1" x="52"/>
-        <item m="1" x="50"/>
-        <item m="1" x="11"/>
-        <item m="1" x="33"/>
-        <item m="1" x="30"/>
-        <item m="1" x="56"/>
-        <item m="1" x="21"/>
-        <item m="1" x="18"/>
-        <item m="1" x="46"/>
-        <item m="1" x="8"/>
-        <item m="1" x="65"/>
-        <item m="1" x="63"/>
-        <item m="1" x="61"/>
-        <item m="1" x="47"/>
-        <item m="1" x="7"/>
-        <item m="1" x="42"/>
-        <item m="1" x="35"/>
-        <item m="1" x="27"/>
-        <item m="1" x="25"/>
-        <item m="1" x="15"/>
-        <item m="1" x="13"/>
-        <item m="1" x="66"/>
-        <item m="1" x="19"/>
-        <item m="1" x="12"/>
-        <item m="1" x="10"/>
-        <item m="1" x="64"/>
-        <item m="1" x="57"/>
-        <item m="1" x="28"/>
-        <item m="1" x="48"/>
-        <item m="1" x="17"/>
-        <item m="1" x="45"/>
-        <item m="1" x="37"/>
-        <item m="1" x="54"/>
-        <item m="1" x="24"/>
-        <item m="1" x="39"/>
-        <item m="1" x="31"/>
-        <item m="1" x="22"/>
-        <item m="1" x="58"/>
-        <item m="1" x="51"/>
-        <item m="1" x="49"/>
-        <item m="1" x="9"/>
-        <item m="1" x="38"/>
-        <item m="1" x="6"/>
-        <item m="1" x="62"/>
-        <item m="1" x="36"/>
-        <item m="1" x="55"/>
-        <item m="1" x="26"/>
-        <item m="1" x="16"/>
-        <item m="1" x="53"/>
-        <item m="1" x="43"/>
-        <item m="1" x="41"/>
-        <item m="1" x="23"/>
-        <item m="1" x="14"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item m="1" x="29"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="53">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="计数项:变换" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="2">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="1" selected="0">
-            <x v="62"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="1">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" offset="B1" fieldPosition="0"/>
-    </format>
-    <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="1">
-            <x v="62"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F3D8ADCA-0C3A-4D58-B5ED-ABD87629A2F1}" name="数据透视表3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="变换假名" colHeaderCaption="">
   <location ref="A4:F58" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
@@ -3384,7 +2822,7 @@
     <dataField name="计数项:变换" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="15">
-    <format dxfId="17">
+    <format dxfId="14">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -3393,7 +2831,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="13">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="2">
@@ -3403,7 +2841,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="12">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -3412,7 +2850,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="11">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -3421,7 +2859,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -3430,7 +2868,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="9">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
@@ -3442,7 +2880,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="8">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -3451,7 +2889,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="7">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -3460,7 +2898,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="6">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -3469,7 +2907,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="5">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -3478,7 +2916,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="4">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -3487,7 +2925,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
@@ -3499,7 +2937,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
@@ -3511,7 +2949,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
@@ -3523,7 +2961,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="0">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
@@ -3548,60 +2986,152 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2344BA49-BE87-43E1-998E-655888D6338A}" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="C1:C39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="38">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F8F110D-86F4-4278-B1EB-DAE993D427BA}" name="数据透视表5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="变换假名" colHeaderCaption="词性">
+  <location ref="M4:R58" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="ascending">
+      <items count="56">
+        <item m="1" x="54"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="26"/>
+        <item x="20"/>
+        <item x="28"/>
+        <item x="25"/>
+        <item x="18"/>
+        <item x="31"/>
+        <item x="30"/>
+        <item x="32"/>
+        <item x="19"/>
+        <item x="47"/>
+        <item x="17"/>
+        <item x="33"/>
+        <item x="29"/>
+        <item x="34"/>
+        <item x="8"/>
+        <item x="35"/>
+        <item x="23"/>
+        <item x="9"/>
+        <item x="36"/>
+        <item x="22"/>
+        <item x="4"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="27"/>
+        <item x="48"/>
+        <item x="6"/>
+        <item x="13"/>
+        <item x="2"/>
+        <item x="37"/>
+        <item x="10"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="49"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="3"/>
+        <item x="21"/>
+        <item x="50"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="46"/>
+        <item x="51"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="24"/>
+        <item x="16"/>
+        <item m="1" x="53"/>
+        <item m="1" x="52"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="68">
+        <item m="1" x="34"/>
+        <item m="1" x="60"/>
+        <item m="1" x="44"/>
+        <item m="1" x="40"/>
+        <item m="1" x="32"/>
+        <item m="1" x="59"/>
+        <item m="1" x="20"/>
+        <item m="1" x="52"/>
+        <item m="1" x="50"/>
+        <item m="1" x="11"/>
+        <item m="1" x="33"/>
+        <item m="1" x="30"/>
+        <item m="1" x="56"/>
+        <item m="1" x="21"/>
+        <item m="1" x="18"/>
+        <item m="1" x="46"/>
+        <item m="1" x="8"/>
+        <item m="1" x="65"/>
+        <item m="1" x="63"/>
+        <item m="1" x="61"/>
+        <item m="1" x="47"/>
+        <item m="1" x="7"/>
+        <item m="1" x="42"/>
+        <item m="1" x="35"/>
+        <item m="1" x="27"/>
+        <item m="1" x="25"/>
+        <item m="1" x="15"/>
+        <item m="1" x="13"/>
+        <item m="1" x="66"/>
+        <item m="1" x="19"/>
+        <item m="1" x="12"/>
+        <item m="1" x="10"/>
+        <item m="1" x="64"/>
+        <item m="1" x="57"/>
+        <item m="1" x="28"/>
+        <item m="1" x="48"/>
+        <item m="1" x="17"/>
+        <item m="1" x="45"/>
+        <item m="1" x="37"/>
+        <item m="1" x="54"/>
+        <item m="1" x="24"/>
+        <item m="1" x="39"/>
+        <item m="1" x="31"/>
+        <item m="1" x="22"/>
+        <item m="1" x="58"/>
+        <item m="1" x="51"/>
+        <item m="1" x="49"/>
+        <item m="1" x="9"/>
+        <item m="1" x="38"/>
+        <item m="1" x="6"/>
+        <item m="1" x="62"/>
+        <item m="1" x="36"/>
+        <item m="1" x="55"/>
+        <item m="1" x="26"/>
+        <item m="1" x="16"/>
+        <item m="1" x="53"/>
+        <item m="1" x="43"/>
+        <item m="1" x="41"/>
+        <item m="1" x="23"/>
+        <item m="1" x="14"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
+        <item m="1" x="29"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="38">
-    <i>
-      <x/>
-    </i>
+  <rowItems count="53">
     <i>
       <x v="1"/>
     </i>
@@ -3709,14 +3239,105 @@
     </i>
     <i>
       <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </colItems>
+  <dataFields count="1">
+    <dataField name="计数项:变换" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="17">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="62"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="16">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" offset="B1" fieldPosition="0"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="62"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -3729,7 +3350,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A4D12251-36CB-405A-B18E-F2B304582A70}" name="数据透视表4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="原词尾位置假名">
   <location ref="A3:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
@@ -6266,13 +5887,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B3" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="B3" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
@@ -6447,7 +6068,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>1</v>
       </c>
       <c r="D10" s="9">
@@ -6561,7 +6182,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>1</v>
       </c>
       <c r="D14" s="9">
@@ -6589,7 +6210,7 @@
         <v>51</v>
       </c>
       <c r="B15" s="9"/>
-      <c r="C15" s="14">
+      <c r="C15" s="13">
         <v>1</v>
       </c>
       <c r="D15" s="9">
@@ -6677,7 +6298,7 @@
         <v>23</v>
       </c>
       <c r="B18" s="9"/>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <v>1</v>
       </c>
       <c r="D18" s="9">
@@ -7827,370 +7448,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77319EE-B66A-4DED-820B-918B13497B99}">
-  <dimension ref="A1:C44"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A36" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A37" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A38" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A39" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A40" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A41" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A42" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A43" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A44" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A44">
-    <sortCondition ref="A1:A44"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EF6075-5B5B-45A4-A45C-C6AFFDC473D5}">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -9929,12 +9191,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43488E6-E580-4A7F-B87D-92FB3CE2996C}">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -9947,22 +9209,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B1" t="s">
         <v>352</v>
       </c>
       <c r="D1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" t="s">
         <v>396</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>395</v>
+      </c>
+      <c r="H1" t="s">
         <v>397</v>
-      </c>
-      <c r="G1" t="s">
-        <v>396</v>
-      </c>
-      <c r="H1" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -9987,7 +9249,7 @@
         <v>358</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E3" s="1">
         <v>114</v>
@@ -10027,7 +9289,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E5" s="1">
         <v>5</v>
@@ -10533,7 +9795,7 @@
     </row>
     <row r="37" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D37" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E37">
         <v>112</v>
@@ -10693,7 +9955,7 @@
         <v>2525</v>
       </c>
       <c r="G48" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H48">
         <v>1571</v>
@@ -10757,13 +10019,13 @@
     </row>
     <row r="53" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D53" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E53">
         <v>1571</v>
       </c>
       <c r="G53" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H53">
         <v>1216</v>
@@ -10785,7 +10047,7 @@
     </row>
     <row r="55" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D55" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E55">
         <v>651</v>
@@ -10889,7 +10151,7 @@
         <v>4568</v>
       </c>
       <c r="G62" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H62">
         <v>651</v>
@@ -10995,13 +10257,13 @@
     </row>
     <row r="70" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D70" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E70">
         <v>1216</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H70" s="1">
         <v>114</v>
@@ -11015,7 +10277,7 @@
         <v>2953</v>
       </c>
       <c r="G71" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H71">
         <v>112</v>
@@ -11127,7 +10389,7 @@
         <v>1966</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H79" s="1">
         <v>5</v>

--- a/v3/python/test/v3_日文假名_Unicode编码.xlsx
+++ b/v3/python/test/v3_日文假名_Unicode编码.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\03Code\02Python\02Dic\v3\python\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB94CBC-63D2-42AD-830C-4C28F4896DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE43BFD4-67A2-420A-A8FD-F2FFE534454D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{73BA3A1E-55D6-47E7-9D87-5C11F0BC2344}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{73BA3A1E-55D6-47E7-9D87-5C11F0BC2344}"/>
   </bookViews>
   <sheets>
     <sheet name="平片假名" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -548,9 +548,6 @@
     <t>ヹ</t>
   </si>
   <si>
-    <t>ヺ</t>
-  </si>
-  <si>
     <t>即日文的平片假名的Unicode编码相差96</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1170,9 +1167,6 @@
   </si>
   <si>
     <t>一</t>
-  </si>
-  <si>
-    <t>词性</t>
   </si>
   <si>
     <t>列1</t>
@@ -1316,12 +1310,20 @@
     <t>频率排序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ヺ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゝ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -1355,6 +1357,13 @@
       <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1397,7 +1406,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1440,6 +1449,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1447,7 +1459,28 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2484,7 +2517,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F3D8ADCA-0C3A-4D58-B5ED-ABD87629A2F1}" name="数据透视表3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="变换假名" colHeaderCaption="">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F3D8ADCA-0C3A-4D58-B5ED-ABD87629A2F1}" name="数据透视表3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="变换假名" colHeaderCaption="">
   <location ref="A4:F58" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
@@ -2822,7 +2855,7 @@
     <dataField name="计数项:变换" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="15">
-    <format dxfId="14">
+    <format dxfId="17">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -2831,7 +2864,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="16">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="2">
@@ -2841,7 +2874,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="15">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -2850,7 +2883,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="14">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -2859,7 +2892,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -2868,7 +2901,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="12">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
@@ -2880,7 +2913,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="11">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -2889,7 +2922,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="10">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -2898,7 +2931,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="9">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -2907,7 +2940,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="8">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -2916,7 +2949,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="7">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -2925,7 +2958,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="6">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
@@ -2937,7 +2970,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
@@ -2949,7 +2982,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
@@ -2961,7 +2994,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
@@ -2987,7 +3020,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F8F110D-86F4-4278-B1EB-DAE993D427BA}" name="数据透视表5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="变换假名" colHeaderCaption="词性">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F8F110D-86F4-4278-B1EB-DAE993D427BA}" name="数据透视表5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="变换假名" colHeaderCaption="">
   <location ref="M4:R58" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" dataField="1" showAll="0" sortType="ascending">
@@ -3316,7 +3349,7 @@
     <dataField name="计数项:变换" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="17">
+    <format dxfId="20">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1" selected="0">
@@ -3325,10 +3358,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="19">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" offset="B1" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -3351,7 +3384,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A4D12251-36CB-405A-B18E-F2B304582A70}" name="数据透视表4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="原词尾位置假名">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A4D12251-36CB-405A-B18E-F2B304582A70}" name="数据透视表4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="原词尾位置假名">
   <location ref="A3:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -3773,8 +3806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B7C9AE-59C1-481D-83E4-3458B561F136}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -3806,7 +3839,7 @@
         <v>96</v>
       </c>
       <c r="H1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -3891,7 +3924,7 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B6" s="4">
         <v>12358</v>
@@ -4071,7 +4104,7 @@
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B15" s="1">
         <v>12367</v>
@@ -4088,7 +4121,7 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B16" s="1">
         <v>12368</v>
@@ -4220,7 +4253,7 @@
     </row>
     <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B25" s="1">
         <v>12377</v>
@@ -4234,7 +4267,7 @@
     </row>
     <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B26" s="1">
         <v>12378</v>
@@ -4374,7 +4407,7 @@
     </row>
     <row r="36" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B36" s="1">
         <v>12388</v>
@@ -4388,7 +4421,7 @@
     </row>
     <row r="37" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B37" s="1">
         <v>12389</v>
@@ -4486,7 +4519,7 @@
     </row>
     <row r="44" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B44" s="1">
         <v>12396</v>
@@ -4612,7 +4645,7 @@
     </row>
     <row r="53" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B53" s="1">
         <v>12405</v>
@@ -4626,7 +4659,7 @@
     </row>
     <row r="54" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B54" s="1">
         <v>12406</v>
@@ -4640,7 +4673,7 @@
     </row>
     <row r="55" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B55" s="1">
         <v>12407</v>
@@ -4766,7 +4799,7 @@
     </row>
     <row r="64" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B64" s="1">
         <v>12416</v>
@@ -4850,7 +4883,7 @@
     </row>
     <row r="70" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B70" s="1">
         <v>12422</v>
@@ -4920,7 +4953,7 @@
     </row>
     <row r="75" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B75" s="1">
         <v>12427</v>
@@ -5125,12 +5158,12 @@
         <v>12537</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:6" ht="21.5" x14ac:dyDescent="0.4">
       <c r="B90">
         <v>12442</v>
       </c>
-      <c r="E90" t="s">
-        <v>169</v>
+      <c r="E90" s="14" t="s">
+        <v>396</v>
       </c>
       <c r="F90">
         <v>12538</v>
@@ -5154,7 +5187,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>76</v>
+        <v>397</v>
       </c>
       <c r="B93">
         <v>12445</v>
@@ -5241,25 +5274,25 @@
         <v>12354</v>
       </c>
       <c r="C2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D2">
         <v>12356</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F2" s="4">
         <v>12358</v>
       </c>
       <c r="G2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H2">
         <v>12360</v>
       </c>
       <c r="I2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J2">
         <v>12362</v>
@@ -5273,13 +5306,13 @@
         <v>12363</v>
       </c>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D4">
         <v>12365</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F4" s="1">
         <v>12367</v>
@@ -5305,13 +5338,13 @@
         <v>12364</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D5" s="2">
         <v>12366</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F5" s="1">
         <v>12368</v>
@@ -5337,13 +5370,13 @@
         <v>12373</v>
       </c>
       <c r="C7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D7">
         <v>12375</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F7" s="1">
         <v>12377</v>
@@ -5369,13 +5402,13 @@
         <v>12374</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D8">
         <v>12376</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F8" s="1">
         <v>12378</v>
@@ -5401,13 +5434,13 @@
         <v>12383</v>
       </c>
       <c r="C10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D10">
         <v>12385</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F10" s="1">
         <v>12388</v>
@@ -5433,13 +5466,13 @@
         <v>12384</v>
       </c>
       <c r="C11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D11">
         <v>12386</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="1">
         <v>12389</v>
@@ -5465,13 +5498,13 @@
         <v>12394</v>
       </c>
       <c r="C13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D13">
         <v>12395</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F13" s="1">
         <v>12396</v>
@@ -5497,13 +5530,13 @@
         <v>12399</v>
       </c>
       <c r="C15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D15">
         <v>12402</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F15" s="1">
         <v>12405</v>
@@ -5529,13 +5562,13 @@
         <v>12400</v>
       </c>
       <c r="C16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D16">
         <v>12403</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F16" s="1">
         <v>12406</v>
@@ -5561,13 +5594,13 @@
         <v>12401</v>
       </c>
       <c r="C17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D17">
         <v>12404</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F17" s="1">
         <v>12407</v>
@@ -5593,13 +5626,13 @@
         <v>12414</v>
       </c>
       <c r="C19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D19">
         <v>12415</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F19" s="1">
         <v>12416</v>
@@ -5645,7 +5678,7 @@
         <v>12420</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F22" s="1">
         <v>12422</v>
@@ -5665,13 +5698,13 @@
         <v>12425</v>
       </c>
       <c r="C24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D24">
         <v>12426</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F24" s="1">
         <v>12427</v>
@@ -5729,7 +5762,7 @@
         <v>12434</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D30" s="1">
         <v>12387</v>
@@ -5737,7 +5770,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B31" s="1">
         <v>12435</v>
@@ -5853,8 +5886,8 @@
   <dimension ref="A3:R59"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -5869,7 +5902,7 @@
     <col min="10" max="11" width="4.75" customWidth="1"/>
     <col min="12" max="12" width="5.25" customWidth="1"/>
     <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.8125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.25" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3.1875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3.25" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="3.25" bestFit="1" customWidth="1"/>
@@ -5887,64 +5920,64 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B3" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="B3" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B5" t="s">
         <v>362</v>
       </c>
-      <c r="B5" t="s">
-        <v>363</v>
-      </c>
       <c r="C5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M5" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="N5" t="s">
         <v>362</v>
       </c>
-      <c r="N5" t="s">
-        <v>363</v>
-      </c>
       <c r="O5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="R5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.4">
@@ -5963,7 +5996,7 @@
         <v>4</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N6" s="9">
         <v>1</v>
@@ -5991,7 +6024,7 @@
         <v>4</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N7" s="9">
         <v>1</v>
@@ -6049,7 +6082,7 @@
         <v>3</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N9" s="9"/>
       <c r="O9" s="9">
@@ -6093,7 +6126,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12">
@@ -6249,7 +6282,7 @@
         <v>2</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="9">
@@ -6281,7 +6314,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="M17" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
@@ -6327,7 +6360,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B19" s="12">
         <v>1</v>
@@ -6417,7 +6450,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12">
@@ -6481,7 +6514,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12">
@@ -6495,7 +6528,7 @@
         <v>2</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N24" s="9"/>
       <c r="O24" s="9">
@@ -6525,7 +6558,7 @@
         <v>2</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N25" s="9">
         <v>1</v>
@@ -6663,7 +6696,7 @@
         <v>1</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="N30" s="9">
         <v>1</v>
@@ -6703,7 +6736,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A32" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -6715,7 +6748,7 @@
         <v>1</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
@@ -6813,7 +6846,7 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A36" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B36" s="9">
         <v>1</v>
@@ -6851,7 +6884,7 @@
         <v>1</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N37" s="9">
         <v>1</v>
@@ -6893,7 +6926,7 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A39" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B39" s="9">
         <v>1</v>
@@ -6919,7 +6952,7 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A40" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -6983,7 +7016,7 @@
         <v>1</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
@@ -6997,7 +7030,7 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A43" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -7117,7 +7150,7 @@
         <v>1</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
@@ -7131,7 +7164,7 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A48" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B48" s="9">
         <v>1</v>
@@ -7183,7 +7216,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A50" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
@@ -7263,7 +7296,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A53" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B53" s="9">
         <v>1</v>
@@ -7275,7 +7308,7 @@
         <v>1</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N53" s="9"/>
       <c r="O53" s="9"/>
@@ -7371,7 +7404,7 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A57" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -7399,7 +7432,7 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A58" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B58" s="9">
         <v>17</v>
@@ -7417,7 +7450,7 @@
         <v>79</v>
       </c>
       <c r="M58" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N58" s="9">
         <v>17</v>
@@ -7451,7 +7484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EF6075-5B5B-45A4-A45C-C6AFFDC473D5}">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
@@ -7473,25 +7506,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E1" t="s">
         <v>353</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G1" t="s">
         <v>354</v>
-      </c>
-      <c r="F1" t="s">
-        <v>368</v>
-      </c>
-      <c r="G1" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -7499,22 +7532,22 @@
         <v>62</v>
       </c>
       <c r="B2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F2" t="s">
         <v>216</v>
       </c>
-      <c r="C2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E2" t="s">
-        <v>363</v>
-      </c>
-      <c r="F2" t="s">
-        <v>217</v>
-      </c>
       <c r="G2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -7522,22 +7555,22 @@
         <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -7545,22 +7578,22 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -7568,22 +7601,22 @@
         <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -7591,22 +7624,22 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -7614,22 +7647,22 @@
         <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -7637,22 +7670,22 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -7660,22 +7693,22 @@
         <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -7683,183 +7716,183 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G13" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="26.5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="26.5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
+        <v>372</v>
+      </c>
+      <c r="B15" t="s">
+        <v>373</v>
+      </c>
+      <c r="C15" t="s">
         <v>374</v>
       </c>
-      <c r="B15" t="s">
-        <v>375</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G15" t="s">
         <v>376</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="G15" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="26.5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B16" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C16" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G16" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="26.5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s">
+        <v>380</v>
+      </c>
+      <c r="C17" t="s">
+        <v>374</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G17" t="s">
         <v>382</v>
-      </c>
-      <c r="C17" t="s">
-        <v>376</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="G17" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
@@ -7867,22 +7900,22 @@
         <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G18" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
@@ -7890,22 +7923,22 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
@@ -7913,68 +7946,68 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
@@ -7982,22 +8015,22 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
@@ -8005,22 +8038,22 @@
         <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
@@ -8028,45 +8061,45 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
@@ -8074,22 +8107,22 @@
         <v>64</v>
       </c>
       <c r="B27" t="s">
+        <v>240</v>
+      </c>
+      <c r="C27" t="s">
+        <v>239</v>
+      </c>
+      <c r="D27" t="s">
+        <v>205</v>
+      </c>
+      <c r="E27" t="s">
+        <v>239</v>
+      </c>
+      <c r="F27" t="s">
         <v>241</v>
       </c>
-      <c r="C27" t="s">
-        <v>240</v>
-      </c>
-      <c r="D27" t="s">
-        <v>206</v>
-      </c>
-      <c r="E27" t="s">
-        <v>240</v>
-      </c>
-      <c r="F27" t="s">
-        <v>242</v>
-      </c>
       <c r="G27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
@@ -8097,22 +8130,22 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
@@ -8120,22 +8153,22 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
@@ -8143,22 +8176,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
@@ -8166,22 +8199,22 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G31" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
@@ -8189,22 +8222,22 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
+        <v>246</v>
+      </c>
+      <c r="C32" t="s">
+        <v>239</v>
+      </c>
+      <c r="D32" t="s">
+        <v>206</v>
+      </c>
+      <c r="E32" t="s">
+        <v>239</v>
+      </c>
+      <c r="F32" t="s">
         <v>247</v>
       </c>
-      <c r="C32" t="s">
-        <v>240</v>
-      </c>
-      <c r="D32" t="s">
-        <v>207</v>
-      </c>
-      <c r="E32" t="s">
-        <v>240</v>
-      </c>
-      <c r="F32" t="s">
-        <v>248</v>
-      </c>
       <c r="G32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
@@ -8212,22 +8245,22 @@
         <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
@@ -8235,22 +8268,22 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G34" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
@@ -8258,22 +8291,22 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F35" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G35" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
@@ -8281,22 +8314,22 @@
         <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
@@ -8304,22 +8337,22 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
+        <v>251</v>
+      </c>
+      <c r="C37" t="s">
+        <v>239</v>
+      </c>
+      <c r="D37" t="s">
+        <v>207</v>
+      </c>
+      <c r="E37" t="s">
+        <v>239</v>
+      </c>
+      <c r="F37" t="s">
         <v>252</v>
       </c>
-      <c r="C37" t="s">
-        <v>240</v>
-      </c>
-      <c r="D37" t="s">
-        <v>208</v>
-      </c>
-      <c r="E37" t="s">
-        <v>240</v>
-      </c>
-      <c r="F37" t="s">
-        <v>253</v>
-      </c>
       <c r="G37" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
@@ -8327,22 +8360,22 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F38" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G38" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
@@ -8350,22 +8383,22 @@
         <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F39" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G39" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
@@ -8373,22 +8406,22 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F40" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
@@ -8396,22 +8429,22 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D41" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F41" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G41" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
@@ -8419,22 +8452,22 @@
         <v>17</v>
       </c>
       <c r="B42" t="s">
+        <v>256</v>
+      </c>
+      <c r="C42" t="s">
+        <v>239</v>
+      </c>
+      <c r="D42" t="s">
+        <v>208</v>
+      </c>
+      <c r="E42" t="s">
+        <v>239</v>
+      </c>
+      <c r="F42" t="s">
         <v>257</v>
       </c>
-      <c r="C42" t="s">
-        <v>240</v>
-      </c>
-      <c r="D42" t="s">
-        <v>209</v>
-      </c>
-      <c r="E42" t="s">
-        <v>240</v>
-      </c>
-      <c r="F42" t="s">
-        <v>258</v>
-      </c>
       <c r="G42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
@@ -8442,22 +8475,22 @@
         <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C43" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E43" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F43" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G43" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
@@ -8465,22 +8498,22 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C44" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D44" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E44" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
@@ -8488,22 +8521,22 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D45" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F45" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G45" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
@@ -8511,22 +8544,22 @@
         <v>25</v>
       </c>
       <c r="B46" t="s">
+        <v>261</v>
+      </c>
+      <c r="C46" t="s">
+        <v>239</v>
+      </c>
+      <c r="D46" t="s">
+        <v>209</v>
+      </c>
+      <c r="E46" t="s">
+        <v>239</v>
+      </c>
+      <c r="F46" t="s">
         <v>262</v>
       </c>
-      <c r="C46" t="s">
-        <v>240</v>
-      </c>
-      <c r="D46" t="s">
-        <v>210</v>
-      </c>
-      <c r="E46" t="s">
-        <v>240</v>
-      </c>
-      <c r="F46" t="s">
-        <v>263</v>
-      </c>
       <c r="G46" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
@@ -8534,22 +8567,22 @@
         <v>27</v>
       </c>
       <c r="B47" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C47" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E47" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F47" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G47" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
@@ -8557,22 +8590,22 @@
         <v>30</v>
       </c>
       <c r="B48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C48" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E48" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F48" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G48" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
@@ -8580,22 +8613,22 @@
         <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F49" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G49" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
@@ -8603,22 +8636,22 @@
         <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D50" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F50" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G50" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
@@ -8626,22 +8659,22 @@
         <v>34</v>
       </c>
       <c r="B51" t="s">
+        <v>266</v>
+      </c>
+      <c r="C51" t="s">
+        <v>239</v>
+      </c>
+      <c r="D51" t="s">
+        <v>203</v>
+      </c>
+      <c r="E51" t="s">
+        <v>239</v>
+      </c>
+      <c r="F51" t="s">
         <v>267</v>
       </c>
-      <c r="C51" t="s">
-        <v>240</v>
-      </c>
-      <c r="D51" t="s">
-        <v>204</v>
-      </c>
-      <c r="E51" t="s">
-        <v>240</v>
-      </c>
-      <c r="F51" t="s">
-        <v>268</v>
-      </c>
       <c r="G51" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
@@ -8649,22 +8682,22 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C52" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D52" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E52" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G52" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
@@ -8672,22 +8705,22 @@
         <v>36</v>
       </c>
       <c r="B53" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C53" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D53" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E53" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F53" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G53" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
@@ -8695,22 +8728,22 @@
         <v>37</v>
       </c>
       <c r="B54" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C54" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E54" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F54" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G54" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
@@ -8718,22 +8751,22 @@
         <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C55" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D55" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E55" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F55" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G55" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
@@ -8741,22 +8774,22 @@
         <v>39</v>
       </c>
       <c r="B56" t="s">
+        <v>272</v>
+      </c>
+      <c r="C56" t="s">
+        <v>239</v>
+      </c>
+      <c r="D56" t="s">
+        <v>210</v>
+      </c>
+      <c r="E56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F56" t="s">
         <v>273</v>
       </c>
-      <c r="C56" t="s">
-        <v>240</v>
-      </c>
-      <c r="D56" t="s">
-        <v>211</v>
-      </c>
-      <c r="E56" t="s">
-        <v>240</v>
-      </c>
-      <c r="F56" t="s">
-        <v>274</v>
-      </c>
       <c r="G56" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
@@ -8764,22 +8797,22 @@
         <v>42</v>
       </c>
       <c r="B57" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D57" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F57" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G57" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
@@ -8787,22 +8820,22 @@
         <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C58" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D58" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E58" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F58" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G58" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.4">
@@ -8810,22 +8843,22 @@
         <v>48</v>
       </c>
       <c r="B59" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C59" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D59" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E59" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F59" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G59" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.4">
@@ -8833,22 +8866,22 @@
         <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C60" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E60" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F60" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G60" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.4">
@@ -8856,22 +8889,22 @@
         <v>50</v>
       </c>
       <c r="B61" t="s">
+        <v>277</v>
+      </c>
+      <c r="C61" t="s">
+        <v>239</v>
+      </c>
+      <c r="D61" t="s">
+        <v>211</v>
+      </c>
+      <c r="E61" t="s">
+        <v>239</v>
+      </c>
+      <c r="F61" t="s">
         <v>278</v>
       </c>
-      <c r="C61" t="s">
-        <v>240</v>
-      </c>
-      <c r="D61" t="s">
-        <v>212</v>
-      </c>
-      <c r="E61" t="s">
-        <v>240</v>
-      </c>
-      <c r="F61" t="s">
-        <v>279</v>
-      </c>
       <c r="G61" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.4">
@@ -8879,22 +8912,22 @@
         <v>51</v>
       </c>
       <c r="B62" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F62" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G62" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.4">
@@ -8902,22 +8935,22 @@
         <v>52</v>
       </c>
       <c r="B63" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C63" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D63" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E63" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F63" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G63" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.4">
@@ -8925,22 +8958,22 @@
         <v>53</v>
       </c>
       <c r="B64" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C64" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D64" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E64" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G64" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.4">
@@ -8948,22 +8981,22 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C65" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D65" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E65" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F65" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G65" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.4">
@@ -8971,22 +9004,22 @@
         <v>59</v>
       </c>
       <c r="B66" t="s">
+        <v>282</v>
+      </c>
+      <c r="C66" t="s">
+        <v>239</v>
+      </c>
+      <c r="D66" t="s">
+        <v>201</v>
+      </c>
+      <c r="E66" t="s">
+        <v>239</v>
+      </c>
+      <c r="F66" t="s">
         <v>283</v>
       </c>
-      <c r="C66" t="s">
-        <v>240</v>
-      </c>
-      <c r="D66" t="s">
-        <v>202</v>
-      </c>
-      <c r="E66" t="s">
-        <v>240</v>
-      </c>
-      <c r="F66" t="s">
-        <v>284</v>
-      </c>
       <c r="G66" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.4">
@@ -8994,22 +9027,22 @@
         <v>60</v>
       </c>
       <c r="B67" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C67" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D67" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E67" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F67" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G67" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.4">
@@ -9017,22 +9050,22 @@
         <v>61</v>
       </c>
       <c r="B68" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C68" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D68" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E68" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F68" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G68" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.4">
@@ -9040,45 +9073,45 @@
         <v>62</v>
       </c>
       <c r="B69" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C69" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D69" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E69" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F69" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G69" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B70" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C70" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D70" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E70" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F70" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G70" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.4">
@@ -9086,99 +9119,99 @@
         <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C72" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C73" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C74" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C75" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C76" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C77" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C78" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C79" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C80" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="81" spans="10:15" ht="63" x14ac:dyDescent="0.4">
       <c r="J81" s="10" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K81" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="L81" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="M81" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="L81" s="10" t="s">
+      <c r="N81" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="M81" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="N81" s="10" t="s">
-        <v>372</v>
-      </c>
       <c r="O81" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -9195,8 +9228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43488E6-E580-4A7F-B87D-92FB3CE2996C}">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -9209,22 +9242,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H1" t="s">
         <v>395</v>
-      </c>
-      <c r="E1" t="s">
-        <v>396</v>
-      </c>
-      <c r="G1" t="s">
-        <v>395</v>
-      </c>
-      <c r="H1" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -9235,7 +9268,7 @@
         <v>703</v>
       </c>
       <c r="G2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H2">
         <v>37041</v>
@@ -9243,13 +9276,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E3" s="1">
         <v>114</v>
@@ -9275,7 +9308,7 @@
         <v>34457</v>
       </c>
       <c r="G4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H4">
         <v>34325</v>
@@ -9283,19 +9316,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B5" s="9">
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E5" s="1">
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H5">
         <v>22571</v>
@@ -9303,13 +9336,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B6" s="9">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E6">
         <v>37041</v>
@@ -9323,7 +9356,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B7" s="9">
         <v>5</v>
@@ -9343,7 +9376,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B8" s="9">
         <v>4</v>
@@ -9363,7 +9396,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B9" s="9">
         <v>5</v>
@@ -9375,7 +9408,7 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H9">
         <v>14672</v>
@@ -9383,7 +9416,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B10" s="9">
         <v>5</v>
@@ -9395,7 +9428,7 @@
         <v>1962</v>
       </c>
       <c r="G10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H10">
         <v>11645</v>
@@ -9403,7 +9436,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B11" s="9">
         <v>5</v>
@@ -9423,7 +9456,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B12" s="9">
         <v>5</v>
@@ -9443,7 +9476,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B13" s="9">
         <v>22</v>
@@ -9463,7 +9496,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B14" s="9"/>
       <c r="D14" t="s">
@@ -9473,7 +9506,7 @@
         <v>4219</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>372</v>
       </c>
       <c r="H14">
         <v>5747</v>
@@ -9481,19 +9514,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B15" s="9">
         <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E15">
         <v>22571</v>
       </c>
       <c r="G15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H15">
         <v>5541</v>
@@ -9501,7 +9534,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E16">
         <v>2429</v>
@@ -9627,7 +9660,7 @@
     </row>
     <row r="25" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E25">
         <v>14672</v>
@@ -9641,7 +9674,7 @@
     </row>
     <row r="26" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E26">
         <v>3339</v>
@@ -9717,7 +9750,7 @@
         <v>5141</v>
       </c>
       <c r="G31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H31">
         <v>3339</v>
@@ -9781,7 +9814,7 @@
     </row>
     <row r="36" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E36">
         <v>11645</v>
@@ -9795,7 +9828,7 @@
     </row>
     <row r="37" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D37" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E37">
         <v>112</v>
@@ -9843,7 +9876,7 @@
         <v>5747</v>
       </c>
       <c r="G40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H40">
         <v>2439</v>
@@ -9857,7 +9890,7 @@
         <v>2607</v>
       </c>
       <c r="G41" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H41">
         <v>2429</v>
@@ -9893,7 +9926,7 @@
     </row>
     <row r="44" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E44">
         <v>852</v>
@@ -9955,7 +9988,7 @@
         <v>2525</v>
       </c>
       <c r="G48" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H48">
         <v>1571</v>
@@ -10019,13 +10052,13 @@
     </row>
     <row r="53" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D53" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E53">
         <v>1571</v>
       </c>
       <c r="G53" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H53">
         <v>1216</v>
@@ -10033,7 +10066,7 @@
     </row>
     <row r="54" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D54" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E54">
         <v>2439</v>
@@ -10047,7 +10080,7 @@
     </row>
     <row r="55" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D55" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E55">
         <v>651</v>
@@ -10095,7 +10128,7 @@
         <v>68</v>
       </c>
       <c r="G58" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H58">
         <v>852</v>
@@ -10151,7 +10184,7 @@
         <v>4568</v>
       </c>
       <c r="G62" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H62">
         <v>651</v>
@@ -10173,7 +10206,7 @@
     </row>
     <row r="64" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D64" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E64">
         <v>5541</v>
@@ -10257,13 +10290,13 @@
     </row>
     <row r="70" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D70" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E70">
         <v>1216</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H70" s="1">
         <v>114</v>
@@ -10277,7 +10310,7 @@
         <v>2953</v>
       </c>
       <c r="G71" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H71">
         <v>112</v>
@@ -10327,7 +10360,7 @@
     </row>
     <row r="75" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D75" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E75">
         <v>34325</v>
@@ -10389,7 +10422,7 @@
         <v>1966</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H79" s="1">
         <v>5</v>
